--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>Sanity_Scenarios</t>
   </si>
@@ -582,7 +582,9 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
   <si>
     <t>Sanity_Scenarios</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Verify Super Admin can successfully Login on the Safety Kuvrr Web Application.</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>Verify Local Admin can successfully Login on the Safety Kuvrr Web Application.</t>
@@ -204,21 +207,6 @@
   </si>
   <si>
     <t>Verify Video rotate &amp; Play button like Next, Last, Previous, Stop options on Share Incident screen should display and functional once open incident gets closed and ready to play.</t>
-  </si>
-  <si>
-    <t>Verify Open incident gets closed if user minimized the SK App.</t>
-  </si>
-  <si>
-    <t>Verify if incident was open and user reopen the SK App after minimizing it then Incident will start again.</t>
-  </si>
-  <si>
-    <t>Verify User can view My Incident history details by clicking on specific Incident.</t>
-  </si>
-  <si>
-    <t>Verify End incident functionality</t>
-  </si>
-  <si>
-    <t>Verify Version Update alert should display on the mobile device.</t>
   </si>
   <si>
     <t>Verify incident should auto close after 7 days if not closed by the observer. </t>
@@ -284,9 +272,6 @@
     <t>Verify Observer can deselect any users from Start Conference Call screen before initiating the audio and video call.</t>
   </si>
   <si>
-    <t>Verify new user can Subscribe for Group Call under Settings. (Preconditions: Observer has given Call Initiate Permission)</t>
-  </si>
-  <si>
     <t>Verify Observer only role users can not create new Geofence.</t>
   </si>
   <si>
@@ -342,9 +327,6 @@
   </si>
   <si>
     <t>Verify Maps Route and Navigation functionality for Super Admin, Local Admin and observer account..</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -386,7 +368,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +379,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -450,12 +438,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -519,7 +507,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FF99FFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -551,20 +539,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="74.6122448979592" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="15.3877551020408" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="49.1377551020408" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.50510204081633" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.8979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,689 +570,674 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
+      <c r="A11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
+      <c r="A12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
+      <c r="A13" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
+      <c r="A14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
+      <c r="A17" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
+      <c r="A18" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
+      <c r="A19" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
+      <c r="A20" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
+      <c r="A21" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
+      <c r="A22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
+      <c r="A23" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
+      <c r="A24" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
+      <c r="A25" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
+      <c r="A26" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
+      <c r="A27" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
+      <c r="A29" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="4"/>
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
+      <c r="A31" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>35</v>
+      <c r="A34" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
+      <c r="A35" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>37</v>
+      <c r="A36" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>38</v>
+      <c r="A37" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>39</v>
+      <c r="A38" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
-        <v>41</v>
+      <c r="A40" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>42</v>
+      <c r="A41" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>43</v>
+      <c r="A42" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>44</v>
+      <c r="A43" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
-        <v>45</v>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
+      <c r="A45" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>47</v>
+      <c r="A46" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>48</v>
+      <c r="A47" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
-        <v>49</v>
+      <c r="A48" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>50</v>
+      <c r="A49" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
-        <v>51</v>
+      <c r="A50" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>52</v>
+      <c r="A51" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>53</v>
+      <c r="A52" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>54</v>
+      <c r="A53" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>55</v>
+      <c r="A54" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>56</v>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>57</v>
+      <c r="A56" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>58</v>
+      <c r="A57" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>59</v>
+      <c r="A58" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>60</v>
+      <c r="A59" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>61</v>
+      <c r="A60" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>62</v>
+      <c r="A61" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" s="4"/>
-    </row>
-    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="4"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" s="4"/>
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-    </row>
-    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-    </row>
-    <row r="98" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-    </row>
-    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-    </row>
-    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>Sanity_Scenarios</t>
   </si>
@@ -539,20 +539,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C65536"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A76" activeCellId="0" sqref="A76"/>
+      <selection pane="bottomLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.8979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col min="1" max="1" hidden="false" style="0" width="71.1428571428571" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="14.5816326530612" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="46.7091836734694" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,7 +587,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3"/>
@@ -686,7 +685,7 @@
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="3"/>
@@ -720,10 +719,12 @@
       <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
       <c r="C21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,7 +795,7 @@
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="3"/>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t>Sanity_Scenarios</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>Verify Maps Route and Navigation functionality for Super Admin, Local Admin and observer account..</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -542,16 +545,17 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="71.1428571428571" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="14.5816326530612" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="46.7091836734694" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="69.5204081632653" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="14.0408163265306" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="45.6275510204082" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -569,8 +573,8 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
+      <c r="B2" t="s">
+        <v>97</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -578,7 +582,7 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3"/>
@@ -639,16 +643,18 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,7 +682,7 @@
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="3"/>
@@ -722,7 +728,7 @@
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="5"/>
@@ -769,7 +775,7 @@
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>4</v>
       </c>
     </row>
@@ -804,7 +810,7 @@
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>4</v>
       </c>
     </row>
@@ -846,7 +852,7 @@
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="3"/>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
   <si>
     <t>Sanity_Scenarios</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Verify Super Admin can successfully Login on the Safety Kuvrr Web Application.</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Verify Local Admin can successfully Login on the Safety Kuvrr Web Application.</t>
@@ -320,16 +317,13 @@
     <t>Verify dial 911 Incident email only goes to Enterprise Emergency Contact users.(User should have permission to receive 911 incident email alerts).</t>
   </si>
   <si>
-    <t>Verify Submit Tip screen only display the Geofence of Users Organization. It should not display the geofence of other Organization.  It does not matter wheather organization has been added through name or Procode.</t>
-  </si>
-  <si>
     <t>Verify all the Map should get open for Super Admin, Local Admin and observer account.</t>
   </si>
   <si>
     <t>Verify Maps Route and Navigation functionality for Super Admin, Local Admin and observer account..</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -371,7 +365,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +382,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF99FFCC"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -432,7 +432,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,12 +453,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -481,7 +489,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFCCFF00"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -502,7 +510,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFCCFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -547,15 +555,15 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="69.5204081632653" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="14.0408163265306" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="45.6275510204082" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.36734693877551" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="75.4591836734694" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="13.7704081632653" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="44.9540816326531" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,671 +582,667 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
+      <c r="A13" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
+      <c r="A14" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4"/>
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>40</v>
+      <c r="A38" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="6"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>53</v>
+      <c r="A51" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>54</v>
+      <c r="A52" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>57</v>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="6"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="6"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="6"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="6"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="4"/>
-    </row>
-    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
+      <c r="B63" s="4"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
+      <c r="B64" s="4"/>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
+      <c r="B65" s="4"/>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
+      <c r="B66" s="4"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
+      <c r="B69" s="4"/>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
+      <c r="B70" s="4"/>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
+      <c r="B71" s="4"/>
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
+      <c r="B72" s="4"/>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
+      <c r="B73" s="4"/>
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
+      <c r="B74" s="4"/>
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="5"/>
-    </row>
-    <row r="75" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
+      <c r="B75" s="4"/>
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="5"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
+      <c r="B76" s="4"/>
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
+      <c r="B77" s="4"/>
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
+      <c r="B78" s="4"/>
+      <c r="C78" s="6"/>
+    </row>
+    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
+      <c r="B79" s="4"/>
+      <c r="C79" s="6"/>
+    </row>
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
+      <c r="B80" s="4"/>
+      <c r="C80" s="6"/>
+    </row>
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
+      <c r="B81" s="4"/>
+      <c r="C81" s="6"/>
+    </row>
+    <row r="82" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
+      <c r="B82" s="4"/>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="s">
-        <v>86</v>
+      <c r="A84" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-    </row>
-    <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+    </row>
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+    </row>
+    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-    </row>
-    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-    </row>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+    </row>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>Sanity_Scenarios</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Verify Super Admin can successfully Login on the Safety Kuvrr Web Application.</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>Verify Local Admin can successfully Login on the Safety Kuvrr Web Application.</t>
@@ -321,9 +324,6 @@
   </si>
   <si>
     <t>Verify Maps Route and Navigation functionality for Super Admin, Local Admin and observer account..</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -449,12 +449,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -550,20 +550,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="75.4591836734694" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="13.7704081632653" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="44.9540816326531" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.8724489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,663 +580,663 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>95</v>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>95</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>95</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
+        <v>20</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
+        <v>23</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
+        <v>30</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>31</v>
+      <c r="A30" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="5"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>95</v>
+        <v>34</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>95</v>
+        <v>35</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>95</v>
+        <v>41</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B40" s="5"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="4"/>
+      <c r="A42" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="5"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B43" s="5"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B44" s="5"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B45" s="5"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B46" s="5"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="B47" s="5"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B48" s="5"/>
       <c r="C48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="B49" s="5"/>
       <c r="C49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B50" s="5"/>
       <c r="C50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="4"/>
+      <c r="A51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="5"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="4"/>
+      <c r="A52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="5"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="B53" s="5"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="B54" s="5"/>
       <c r="C54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="4"/>
+      <c r="A55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="5"/>
       <c r="C55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B56" s="5"/>
       <c r="C56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="B57" s="5"/>
       <c r="C57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="B58" s="5"/>
       <c r="C58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="B59" s="5"/>
       <c r="C59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="B61" s="5"/>
       <c r="C61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="B62" s="5"/>
       <c r="C62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="B63" s="5"/>
       <c r="C63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="B64" s="5"/>
       <c r="C64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="B65" s="5"/>
       <c r="C65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="B66" s="5"/>
       <c r="C66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="B67" s="5"/>
       <c r="C67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="B69" s="5"/>
       <c r="C69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="B70" s="5"/>
       <c r="C70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B71" s="5"/>
       <c r="C71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="B72" s="5"/>
       <c r="C72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="B73" s="5"/>
       <c r="C73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="B74" s="5"/>
       <c r="C74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="B75" s="5"/>
       <c r="C75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="B76" s="5"/>
       <c r="C76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="B77" s="5"/>
       <c r="C77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="B78" s="5"/>
       <c r="C78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="B79" s="5"/>
       <c r="C79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="B80" s="5"/>
       <c r="C80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="B81" s="5"/>
       <c r="C81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="B82" s="5"/>
       <c r="C82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B83" s="5"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="B84" s="5"/>
       <c r="C84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Sanity_Scenarios</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Verify Super Admin can successfully Login on the Safety Kuvrr Web Application.</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Verify Local Admin can successfully Login on the Safety Kuvrr Web Application.</t>
   </si>
   <si>
@@ -70,7 +67,7 @@
     <t>Verify Observer (Local Admin) can only get incident's when Device Location is ON.</t>
   </si>
   <si>
-    <t>Verify User can perform Smart Response chat under the Open incident screen.</t>
+    <t>Verify Event Actions features like closing an open event for  both Admin and Observer login.</t>
   </si>
   <si>
     <t>Verify User can write and send text message under Smart Response chat under the Open incident screen.</t>
@@ -130,7 +127,19 @@
     <t>Verify new incident should automatically displayed under Active Event Screen without reloading or refreshing the browser.</t>
   </si>
   <si>
-    <t>Verify Video Play button like Next, Last, Previous, Stop options start displaying on Web once Open Live Video Streaming gets closed. Verify It for Observer, Share Incident Email &amp; Emergency Contact &amp; Admin.</t>
+    <t>Verify User can view all closed incident under Closed Screen.</t>
+  </si>
+  <si>
+    <t>Verify User can replay Closed SOS Incident displaying under Closed Screen.</t>
+  </si>
+  <si>
+    <t>Verify User can replay Closed Walk Safe  Incident displaying under Closed Screen.</t>
+  </si>
+  <si>
+    <t>Verify User can replay Closed 911 Incident displaying under Closed Screen.</t>
+  </si>
+  <si>
+    <t>Verify Closed incident video should display Video rotation button, Video fast Forward and fast Backward button and Video Paused button. Verify It for Observer, Share Incident Email &amp; Emergency Contact &amp; Admin.</t>
   </si>
   <si>
     <t>Verify Live incident displays in Open Status on Command and Control Screen.</t>
@@ -139,16 +148,7 @@
     <t>Verify Incident Video on Live Mode, VOD (video on demand) mode and on S3 Mode.</t>
   </si>
   <si>
-    <t>Verify Video Play button like Next, Last, Previous, Stop options start displaying on Web once Open Live Video Streaming gets closed after successful streaming. Verify It for Observer, Share Incident Email &amp; Emergency Contact &amp; Admin.</t>
-  </si>
-  <si>
     <t>Verify Emergency Contact should received an Incident raised email alert.</t>
-  </si>
-  <si>
-    <t>Verify Event Actions features like closing an open event for  both Admin and Observer login.</t>
-  </si>
-  <si>
-    <t>Verify Event Actions can only performed on Open Incidents which is not locked by another user.</t>
   </si>
   <si>
     <t>Verify If event is locked by another admin or observer then event screen should display the message “ This event has been locked by another user and therefore cannot be edited.”</t>
@@ -555,14 +555,15 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="81.3826530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,668 +581,616 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>16</v>
+      <c r="A14" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>55</v>
+    <row r="53" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
-        <v>70</v>
+      <c r="A68" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="s">
-        <v>84</v>
+    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9" t="s">
-        <v>94</v>
+      <c r="A92" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+    </row>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
   <si>
     <t>Sanity_Scenarios</t>
   </si>
@@ -324,6 +324,265 @@
   </si>
   <si>
     <t>Verify Maps Route and Navigation functionality for Super Admin, Local Admin and observer account..</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify following points under Visitor Pass types screen with LA Login:
+1) Pass Type Title filter
+2) Number of Day filter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3) Status filter
+4) Active Inactive Filter
+5) Edit Visitor Pass
+6) Details
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create A Visitor Pass type with the following scenarios and verify its functionality: 
+1) Create Pass with different Time Zone
+2) Create Pass with different Number of Days
+3) Create Pass with different Effective From and Till time.
+4) Update and Verify Text content under Text Invite and Email Invite
+5) Create Pass with single geofences. 
+6) Create Pass with All geofences. 
+7) Create Pass with Monitor Everywhere. 
+8) Status (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Active Inactive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)
+9) Check response when a mandatory field is Empty &amp; clicked on Submit button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify following points under Manage Visitors screen with LA Login:
+1) Last name filter
+2) First name filter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>3) Email filter
+4) Mobile Number filter
+5)Type Filter (With App &amp; Without App)
+6) Active Inactive Visitor
+7) Edit Visitor details
+8) Details
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify Create New Visitor functionality with the following points:
+1) 10 digit mobile number
+2) Check response when Mandatory fields like First Name, Last Name, Company 
+Name, Email, Start Date, Guest Pass Type is empty and clicked on submit button.
+3) Verify User should be able to select Country code under Country
+Code drop down.
+4) Create Visitor with Invitation Type Notifications Only. User should 
+ not be able to Login into safety Kuvrr and should not allow to 
+raise an incident. User should only get notifications.
+5) Create Visitor with Invitation Type Safety Kuvrr App. User should 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> not be able to register and signIn into safety Kuvrr app and should
+Be allowed to raise an incident. User should also get notifications.
+6) Verify Guest status should be by default Active. User can change the Status.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify following points under Manage Notification Groups screen:
+1) Group Name Filter
+2) Status Filter
+3) Active Inactive Check box.
+4) Verify Edit Notification group screen
+5) Check the alignment and functionality of the text and button is proper under Details screen
+6) Check the alignment and functioning of the text and button is proper
+7) Check the positioning of GUI elements for different screen resolution.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify following points under Create Notification Groups screen:
+1) Check Response when Mandatory field is empty and user Submit the Form.
+2) Check Active and Inactive Status  behaviour.
+3) Check Search Filter under Organization Users section.
+4)  Check Role drop down Filter under Organization Users section.
+5) Check Select All and Individual Select Radio button under Organization Users section.
+6) Verify Users details are correct under Organization Users section.
+7) Check the alignment and functionality of the text and button is proper
+8) Check the positioning of GUI elements for different screen resolution.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>9) Check Search Filter under Organization Emergency Contacts section.
+10) Check Select All and Individual Select Radio button under Organization Emergency Contacts 
+section.
+11) Verify Users details are correct under Organization Emergency Contacts section.
+12) Check Search Filter under External Contacts section.
+13) Check Select All and Individual Select Radio button under External Contacts section.
+14) Verify Users details are correct under External Contacts section.
+15) Verify user can Add new External Contact by clicking Add New Contact button under 
+       External Contacts section. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>16) Verify mandatory field, Non mandatory field, buttons and Mobile number length validation 
+     Under </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add new External Contact screen.
+17) Verify Cancel and Submit button alignment and Functionality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify following points under Manage Templates screen under Notification sections:
+1) Template Title Filter
+2) Status Filter
+3) Active Inactive Check box.
+4) Verify Edit Notification Template functionality with look and feel.
+5) Check the alignment and functionality of the text and button is proper under Details screen
+6) Check the alignment and functioning of the text and button is proper
+7) Verify user can create new Notification Template by selecting Create Template button.
+8) Check response when a mandatory field is Empty &amp; clicked on Submit button under Create 
+   Notification Template screen.
+9) Verify mandatory field, Non mandatory field, Notification Content and buttons Under Create 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   Notification Template screen.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -333,7 +592,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -363,6 +622,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -432,7 +697,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -471,6 +736,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -550,20 +819,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C65536"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A95" activeCellId="0" sqref="A95:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="81.3826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" hidden="false" style="0" width="80.4540816326531" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="12.8265306122449" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="42.3877551020408" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,30 +850,45 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,24 +902,36 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,12 +959,18 @@
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,6 +984,9 @@
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,6 +1051,9 @@
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
@@ -769,32 +1077,50 @@
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
@@ -806,7 +1132,9 @@
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,6 +1518,41 @@
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
+    </row>
+    <row r="95" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Verify Super Admin can successfully Login on the Safety Kuvrr Web Application.</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>Verify Local Admin can successfully Login on the Safety Kuvrr Web Application.</t>
@@ -326,53 +329,17 @@
     <t>Verify Maps Route and Navigation functionality for Super Admin, Local Admin and observer account..</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Verify following points under Visitor Pass types screen with LA Login:
+    <t>Verify following points under Visitor Pass types screen with LA Login:
 1) Pass Type Title filter
 2) Number of Day filter
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>3) Status filter
+3) Status filter
 4) Active Inactive Filter
 5) Edit Visitor Pass
 6) Details
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Create A Visitor Pass type with the following scenarios and verify its functionality: 
+  </si>
+  <si>
+    <t>Create A Visitor Pass type with the following scenarios and verify its functionality: 
 1) Create Pass with different Time Zone
 2) Create Pass with different Number of Days
 3) Create Pass with different Effective From and Till time.
@@ -380,80 +347,23 @@
 5) Create Pass with single geofences. 
 6) Create Pass with All geofences. 
 7) Create Pass with Monitor Everywhere. 
-8) Status (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Active Inactive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>)
+8) Status (Active Inactive)
 9) Check response when a mandatory field is Empty &amp; clicked on Submit button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Verify following points under Manage Visitors screen with LA Login:
+  </si>
+  <si>
+    <t>Verify following points under Manage Visitors screen with LA Login:
 1) Last name filter
 2) First name filter
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>3) Email filter
+3) Email filter
 4) Mobile Number filter
 5)Type Filter (With App &amp; Without App)
 6) Active Inactive Visitor
 7) Edit Visitor details
 8) Details
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Verify Create New Visitor functionality with the following points:
+  </si>
+  <si>
+    <t>Verify Create New Visitor functionality with the following points:
 1) 10 digit mobile number
 2) Check response when Mandatory fields like First Name, Last Name, Company 
 Name, Email, Start Date, Guest Pass Type is empty and clicked on submit button.
@@ -463,20 +373,10 @@
  not be able to Login into safety Kuvrr and should not allow to 
 raise an incident. User should only get notifications.
 5) Create Visitor with Invitation Type Safety Kuvrr App. User should 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> not be able to register and signIn into safety Kuvrr app and should
+ not be able to register and signIn into safety Kuvrr app and should
 Be allowed to raise an incident. User should also get notifications.
 6) Verify Guest status should be by default Active. User can change the Status.
 </t>
-    </r>
   </si>
   <si>
     <t>Verify following points under Manage Notification Groups screen:
@@ -490,14 +390,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Verify following points under Create Notification Groups screen:
+    <t>Verify following points under Create Notification Groups screen:
 1) Check Response when Mandatory field is empty and user Submit the Form.
 2) Check Active and Inactive Status  behaviour.
 3) Check Search Filter under Organization Users section.
@@ -506,17 +399,7 @@
 6) Verify Users details are correct under Organization Users section.
 7) Check the alignment and functionality of the text and button is proper
 8) Check the positioning of GUI elements for different screen resolution.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>9) Check Search Filter under Organization Emergency Contacts section.
+9) Check Search Filter under Organization Emergency Contacts section.
 10) Check Select All and Individual Select Radio button under Organization Emergency Contacts 
 section.
 11) Verify Users details are correct under Organization Emergency Contacts section.
@@ -525,41 +408,40 @@
 14) Verify Users details are correct under External Contacts section.
 15) Verify user can Add new External Contact by clicking Add New Contact button under 
        External Contacts section. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>16) Verify mandatory field, Non mandatory field, buttons and Mobile number length validation 
-     Under </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Add new External Contact screen.
+16) Verify mandatory field, Non mandatory field, buttons and Mobile number length validation 
+     Under Add new External Contact screen.
 17) Verify Cancel and Submit button alignment and Functionality.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Verify following points under Manage Templates screen under Notification sections:
+  </si>
+  <si>
+    <t>Verify following points under Edit Notification Groups screen:
+1) Check User can Edit both Active and Inactive Notification Groups
+2) Check Edit Notification Group screen should gets open properly for both Active and Inactive Notification Groups.
+3) Check Response when Mandatory field is empty and user Submit the Form.
+4) Check Active and Inactive Status  behaviour.
+5) Check Search Filter under Organization Users section.
+6)  Check Role drop down Filter under Organization Users section.
+7) Check Select All and Individual Select Radio button under Organization Users section.
+8) Verify Users details are correct under Organization Users section.
+9) Check the alignment and functionality of the text and button is proper
+10) Check the positioning of GUI elements for different screen resolution.
+11) Check Search Filter under Organization Emergency Contacts section.
+12) Check Select All and Individual Select Radio button under Organization Emergency Contacts 
+section.
+13) Verify Users details are correct under Organization Emergency Contacts section.
+14) Check Search Filter under External Contacts section.
+15) Check Select All and Individual Select Radio button under External Contacts section.
+16) Verify Users details are correct under External Contacts section.
+17) Verify user can Add new External Contact by clicking Add New Contact button under 
+       External Contacts section. 
+18) Verify mandatory field, Non mandatory field, buttons and Mobile number length validation 
+     Under Add new External Contact screen.
+19) Verify Cancel and Submit button alignment and Functionality.</t>
+  </si>
+  <si>
+    <t>Verify following points under Manage Templates screen under Notification sections:
 1) Template Title Filter
 2) Status Filter
-3) Active Inactive Check box.
+3) Active Inactive Check box should work for both Create and Edit Template.
 4) Verify Edit Notification Template functionality with look and feel.
 5) Check the alignment and functionality of the text and button is proper under Details screen
 6) Check the alignment and functioning of the text and button is proper
@@ -567,22 +449,39 @@
 8) Check response when a mandatory field is Empty &amp; clicked on Submit button under Create 
    Notification Template screen.
 9) Verify mandatory field, Non mandatory field, Notification Content and buttons Under Create 
+   Notification Template screen.
+10) Check correct data should display under Manage Template columns like Title, Organization(s), User Group(s), channels and Geo Aware. 
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>   Notification Template screen.
+  </si>
+  <si>
+    <t>Verify following points under Create Notification Template screen:
+1) Organization drop down should by default display Organization 
+2) Status Filter
+3) Active Inactive Check box should work for both Create and Edit Template.
+4) Verify Edit Notification Template functionality with look and feel.
+5) Check the alignment and functionality of the text and button is proper under Details screen
+6) Check the alignment and functioning of the text and button is proper
+7) All Notification Content Email, Mobile Text, App Notification, Text to voice should be selected by default.
+8) Check response when a mandatory field is Empty &amp; clicked on Submit button under Create 
+   Notification Template screen.
+9) Verify mandatory field, Non mandatory field, Notification Content and buttons Under Create 
+   Notification Template screen.
+10) Verify Geo Aware button is working properly.
 </t>
-    </r>
-  </si>
-  <si>
-    <t>Pass</t>
+  </si>
+  <si>
+    <t>Check following fields under Enterprise Emergency Contacts screen:
+1) Add “New Contact” button should be functional and visible
+2) Verify data under 1) First Name 2) Last Name 3) Email 4) Phone 5) Event Types column
+3) Verify delete button makes the contact Inactive
+4) Verify Edit works properly
+5) check response if Mandatory field is left empty and user try to update Emergency contact.
+6) Check at least one event type is mandatory to update Emergency contact. </t>
+  </si>
+  <si>
+    <t>Verify LA can create Enterprise Emergency Contact with Event Type SOS, 911, Timer and Safe Walk.
+check response if Mandatory field is left empty and user try to create Emergency contact.
+Check at least one event type is mandatory to create Emergency contact. </t>
   </si>
 </sst>
 </file>
@@ -697,7 +596,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -739,6 +638,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -822,17 +725,16 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A95" activeCellId="0" sqref="A95:A101"/>
+      <selection pane="bottomLeft" activeCell="A103" activeCellId="0" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="80.4540816326531" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="12.8265306122449" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="42.3877551020408" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="8.23469387755102" collapsed="true"/>
+    <col min="1" max="1" hidden="false" style="0" width="89.984693877551" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="12.5561224489796" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="41.3061224489796" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,711 +753,732 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>103</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="58.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="283.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="176.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="323.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>
@@ -861,7 +861,7 @@
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="3"/>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3875" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3875" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3977" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3977" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4840" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4840" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4995" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4995" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5047" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5047" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5529" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>

--- a/Test Data/SanityWebSheet.xlsx
+++ b/Test Data/SanityWebSheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5529" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5620" uniqueCount="108">
   <si>
     <t>Sanity_Scenarios</t>
   </si>
